--- a/LF/PreTAS/Senegal/a_DSA_COVID_EU_v4.xlsx
+++ b/LF/PreTAS/Senegal/a_DSA_COVID_EU_v4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC12A079-3C42-4EB7-8C9F-956816EE9153}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB2BEBB-9580-4268-BA40-5564EF707EDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="272" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,15 +17,12 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">survey!$A$1:$X$56</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="204">
   <si>
     <t>type</t>
   </si>
@@ -48,9 +45,6 @@
     <t>required</t>
   </si>
   <si>
-    <t>constraint_message::French(fr)</t>
-  </si>
-  <si>
     <t>maxlength</t>
   </si>
   <si>
@@ -126,6 +120,9 @@
     <t>(first and last name):</t>
   </si>
   <si>
+    <t>Superviseur (prénom et nom de famille</t>
+  </si>
+  <si>
     <t>integer</t>
   </si>
   <si>
@@ -162,9 +159,6 @@
     <t>Number of new and active COVID -19 cases in the EU in the last 2 weeks:</t>
   </si>
   <si>
-    <t>Nombre total de nouveaux cas  COVIDE -19  dans le district (ou le site) au cours des 2 dernières semaines:</t>
-  </si>
-  <si>
     <t>begin group</t>
   </si>
   <si>
@@ -591,97 +585,55 @@
     <t>${s1.materials_deployed}=2</t>
   </si>
   <si>
+    <t xml:space="preserve">optional.  Please upload a photo of the training.  </t>
+  </si>
+  <si>
     <t>district</t>
   </si>
   <si>
-    <t>Mbacké </t>
-  </si>
-  <si>
-    <t>Tivaouane </t>
-  </si>
-  <si>
-    <t>Joal </t>
-  </si>
-  <si>
-    <t>Thiès</t>
-  </si>
-  <si>
-    <t>Koumpentoum</t>
-  </si>
-  <si>
-    <t>Bakel</t>
-  </si>
-  <si>
-    <t>Bambey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vélingara </t>
-  </si>
-  <si>
-    <t>Thiadiaye</t>
-  </si>
-  <si>
-    <t>Mbour</t>
-  </si>
-  <si>
-    <t>Kidira</t>
-  </si>
-  <si>
-    <t>Dianké Makha</t>
-  </si>
-  <si>
     <t>select_one district</t>
   </si>
   <si>
     <t>Choose district</t>
   </si>
   <si>
-    <t>Choisissez le district</t>
-  </si>
-  <si>
     <t>a DSA COVID EU v4</t>
   </si>
   <si>
-    <t>a_dsa_covid_eu_v4_senegal</t>
-  </si>
-  <si>
-    <t>Tambacounda</t>
-  </si>
-  <si>
-    <t>Mbacke</t>
-  </si>
-  <si>
-    <t>Velingara</t>
-  </si>
-  <si>
-    <t>Tivaouane</t>
-  </si>
-  <si>
-    <t>Joal</t>
-  </si>
-  <si>
-    <t>Thies</t>
-  </si>
-  <si>
-    <t>Dianke_Makha</t>
-  </si>
-  <si>
-    <t>Kolda</t>
+    <t>a_dsa_covid_eu_v4_benin</t>
+  </si>
+  <si>
+    <t>Za-Kpota</t>
+  </si>
+  <si>
+    <t>Zagnanado</t>
+  </si>
+  <si>
+    <t>Ouinhi</t>
+  </si>
+  <si>
+    <t>Covè</t>
+  </si>
+  <si>
+    <t>Choisissez le commune</t>
+  </si>
+  <si>
+    <t>Nombre total de nouveaux cas  COVIDE -19  dans le commune au cours des 2 dernières semaines:</t>
+  </si>
+  <si>
+    <t>Cove</t>
+  </si>
+  <si>
+    <t>hint::French (fr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constraint_message::French (fr) </t>
   </si>
   <si>
     <t>default_language</t>
   </si>
   <si>
     <t>French (fr)</t>
-  </si>
-  <si>
-    <t>hint::French (fr)</t>
-  </si>
-  <si>
-    <t>Superviseur</t>
-  </si>
-  <si>
-    <t>(prénom et nom de famille)</t>
   </si>
 </sst>
 </file>
@@ -762,12 +714,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -776,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,8 +798,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1225,10 +1193,10 @@
   <dimension ref="A1:X68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H55" sqref="H55"/>
+      <selection pane="bottomRight" activeCell="F53" sqref="F53:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="16.5" customHeight="1"/>
@@ -1258,7 +1226,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>2</v>
@@ -1276,144 +1244,141 @@
         <v>6</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K1" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="12" t="s">
-        <v>10</v>
-      </c>
       <c r="P1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>17</v>
-      </c>
-      <c r="V1" s="12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2"/>
       <c r="E2"/>
       <c r="G2"/>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="16.5" customHeight="1">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3"/>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="16.5" customHeight="1">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4"/>
       <c r="E4"/>
       <c r="G4"/>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="16.5" customHeight="1">
       <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
       </c>
       <c r="E5"/>
       <c r="G5"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="16.5" customHeight="1">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6"/>
       <c r="G6"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="16.5" customHeight="1">
       <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
       <c r="G7"/>
       <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>217</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="16.5" customHeight="1">
@@ -1429,7 +1394,7 @@
       <c r="E8"/>
       <c r="G8"/>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J8" t="s">
         <v>36</v>
@@ -1437,20 +1402,20 @@
     </row>
     <row r="9" spans="1:22" ht="16.5" customHeight="1">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B9" t="s">
         <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="F9" s="10"/>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="16.5" customHeight="1">
@@ -1468,7 +1433,7 @@
       </c>
       <c r="G10"/>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
         <v>41</v>
@@ -1490,22 +1455,22 @@
       <c r="E11"/>
       <c r="G11"/>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="16.5" customHeight="1">
       <c r="A12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>47</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1513,7 +1478,7 @@
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
@@ -1529,217 +1494,217 @@
     </row>
     <row r="13" spans="1:22" ht="16.5" customHeight="1">
       <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="E13"/>
       <c r="G13"/>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="16.5" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" t="str">
         <f>_xlfn.CONCAT(B13,"_ifno")</f>
         <v>s1.tested_ifno</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E14" s="17"/>
       <c r="G14"/>
       <c r="H14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.5" customHeight="1">
       <c r="A15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
         <v>54</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E15"/>
       <c r="G15"/>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="16.5" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" t="str">
         <f>_xlfn.CONCAT(B15,"_ifno")</f>
         <v>s1.materials_deployed_ifno</v>
       </c>
       <c r="C16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E16" s="17"/>
       <c r="G16"/>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="16.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E17"/>
       <c r="G17"/>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="16.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E18" s="17"/>
       <c r="G18"/>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="16.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E19"/>
       <c r="G19"/>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="16.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E20" s="17"/>
       <c r="G20"/>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="16.5" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>64</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>65</v>
       </c>
       <c r="E21"/>
       <c r="G21"/>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="16.5" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E22" s="17"/>
       <c r="G22"/>
       <c r="H22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="15"/>
@@ -1763,14 +1728,14 @@
     </row>
     <row r="24" spans="1:22" ht="16.5" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
@@ -1778,7 +1743,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
@@ -1794,133 +1759,133 @@
     </row>
     <row r="25" spans="1:22" ht="16.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E25"/>
       <c r="G25"/>
       <c r="H25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:22" ht="16.5" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E26" s="17"/>
       <c r="G26"/>
       <c r="H26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="16.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>75</v>
       </c>
       <c r="E27"/>
       <c r="G27"/>
       <c r="H27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="16.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E28" s="17"/>
       <c r="G28"/>
       <c r="H28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:22" ht="16.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="E29"/>
       <c r="G29"/>
       <c r="H29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:22" ht="16.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E30" s="17"/>
       <c r="G30"/>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:22" ht="16.5" customHeight="1">
       <c r="A31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="16"/>
@@ -1944,14 +1909,14 @@
     </row>
     <row r="32" spans="1:22" ht="16.5" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -1959,7 +1924,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
@@ -1975,379 +1940,379 @@
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="E33"/>
       <c r="G33"/>
       <c r="H33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E34" s="17"/>
       <c r="G34"/>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J34" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="E35"/>
       <c r="G35"/>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E36" s="17"/>
       <c r="G36"/>
       <c r="H36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>90</v>
       </c>
       <c r="E37"/>
       <c r="G37"/>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" s="17"/>
       <c r="G38"/>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J38" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>93</v>
       </c>
       <c r="E39"/>
       <c r="G39"/>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="17"/>
       <c r="G40"/>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J40" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>96</v>
       </c>
       <c r="E41"/>
       <c r="G41"/>
       <c r="H41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E42" s="17"/>
       <c r="G42"/>
       <c r="H42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J42" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E43"/>
       <c r="G43"/>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E44" s="17"/>
       <c r="G44"/>
       <c r="H44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J44" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="E45"/>
       <c r="G45"/>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46" s="17"/>
       <c r="G46"/>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J46" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>105</v>
       </c>
       <c r="E47"/>
       <c r="G47"/>
       <c r="H47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C48" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E48" s="17"/>
       <c r="G48"/>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J48" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="16.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="E49"/>
       <c r="G49"/>
       <c r="H49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J49" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="16.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>168</v>
-      </c>
-      <c r="C50" t="s">
-        <v>186</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>169</v>
       </c>
       <c r="E50" s="17"/>
       <c r="G50"/>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="16.5" customHeight="1">
       <c r="A51" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="14"/>
@@ -2371,89 +2336,82 @@
     </row>
     <row r="52" spans="1:24" ht="16.5" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="9" t="s">
         <v>110</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>111</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="H52" t="s">
-        <v>20</v>
-      </c>
       <c r="J52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X52" s="9"/>
     </row>
     <row r="53" spans="1:24" ht="16.5" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="F53" s="9"/>
+      <c r="I53" t="s">
+        <v>153</v>
+      </c>
+      <c r="J53" t="s">
         <v>114</v>
       </c>
-      <c r="E53" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I53" t="s">
-        <v>154</v>
-      </c>
-      <c r="J53" t="s">
-        <v>115</v>
-      </c>
       <c r="V53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="X53" s="9"/>
     </row>
     <row r="54" spans="1:24" ht="16.5" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>116</v>
-      </c>
+      <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="I54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="X54" s="9"/>
     </row>
     <row r="55" spans="1:24" ht="16.5" customHeight="1">
       <c r="A55" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
-      <c r="H55" t="s">
-        <v>20</v>
-      </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K55" s="9"/>
       <c r="L55" s="9"/>
@@ -2473,20 +2431,20 @@
     </row>
     <row r="56" spans="1:24" ht="16.5" customHeight="1">
       <c r="A56" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>125</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>126</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K56" s="9"/>
       <c r="L56" s="9"/>
@@ -2564,7 +2522,6 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:X56" xr:uid="{30E6943C-E825-4A51-996A-A2BA1B385961}"/>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2573,23 +2530,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>1</v>
@@ -2598,358 +2555,218 @@
         <v>2</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.75" customHeight="1">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.75" customHeight="1">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>139</v>
       </c>
       <c r="C7" t="str">
         <f>B7</f>
         <v>preTAS</v>
       </c>
       <c r="D7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" t="s">
         <v>143</v>
       </c>
-      <c r="C11" t="s">
-        <v>144</v>
-      </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>146</v>
-      </c>
-      <c r="D12" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" t="s">
         <v>188</v>
       </c>
-      <c r="B13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C13" t="s">
-        <v>206</v>
-      </c>
-      <c r="D13" t="s">
-        <v>206</v>
+      <c r="B13" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" t="s">
         <v>188</v>
       </c>
-      <c r="B14" t="s">
-        <v>193</v>
-      </c>
-      <c r="C14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" t="s">
-        <v>193</v>
+      <c r="B14" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" t="s">
         <v>188</v>
       </c>
-      <c r="B15" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" t="s">
-        <v>194</v>
+      <c r="B15" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" t="s">
         <v>188</v>
       </c>
-      <c r="B16" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A17" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" t="s">
-        <v>189</v>
-      </c>
-      <c r="D17" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A18" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" t="s">
-        <v>208</v>
-      </c>
-      <c r="C18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A19" t="s">
-        <v>188</v>
-      </c>
-      <c r="B19" t="s">
-        <v>209</v>
-      </c>
-      <c r="C19" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A20" t="s">
-        <v>188</v>
-      </c>
-      <c r="B20" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A21" t="s">
-        <v>188</v>
-      </c>
-      <c r="B21" t="s">
-        <v>210</v>
-      </c>
-      <c r="C21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D21" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>188</v>
-      </c>
-      <c r="B22" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A23" t="s">
-        <v>188</v>
-      </c>
-      <c r="B23" t="s">
-        <v>211</v>
-      </c>
-      <c r="C23" t="s">
-        <v>192</v>
-      </c>
-      <c r="D23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A24" t="s">
-        <v>188</v>
-      </c>
-      <c r="B24" t="s">
-        <v>199</v>
-      </c>
-      <c r="C24" t="s">
-        <v>199</v>
-      </c>
-      <c r="D24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B25" t="s">
-        <v>212</v>
-      </c>
-      <c r="C25" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="12.75" customHeight="1">
-      <c r="A26" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D26" t="s">
-        <v>213</v>
+      <c r="B16" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2965,42 +2782,41 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="36.85546875" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" t="s">
         <v>148</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>149</v>
       </c>
-      <c r="C1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>214</v>
+      <c r="D1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>215</v>
+        <v>150</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3012,6 +2828,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AEFB3F4171EC82428D910BE3234C67FA" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9938e3172c307e2520b2ca526c112a7a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c939b9da-575a-4628-a366-c17e4bb2a342" xmlns:ns3="c8706181-32fa-416f-9c27-0f1515637c48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19452efc5c30e30bdaf98fbaeefcd94b" ns2:_="" ns3:_="">
     <xsd:import namespace="c939b9da-575a-4628-a366-c17e4bb2a342"/>
@@ -3228,15 +3053,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -3244,6 +3060,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B79C710D-4E76-44F1-86D5-D6FFA1E19B68}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{188DEED5-0DDB-4444-9490-DBFD1AB42681}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3262,14 +3086,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B79C710D-4E76-44F1-86D5-D6FFA1E19B68}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A943EEDC-A78B-42CA-994F-CECD1F00ABAB}">
   <ds:schemaRefs>
